--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saimanikandan\git\SeleniumFramework\SeleniumAutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F0ECFB-C861-4872-833D-4B73AF3ED62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C95DACC-E506-4CDB-97B7-B17F26C266F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38FCFB2D-53CE-4522-A496-BAC64CC4B858}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{38FCFB2D-53CE-4522-A496-BAC64CC4B858}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>ProductName</t>
   </si>
   <si>
-    <t>iPhone 11</t>
-  </si>
-  <si>
     <t>8903486368</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Saimanikandan</t>
+  </si>
+  <si>
+    <t>iphone 11</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674BEDD-9BC6-44EA-883C-A9E4A3108420}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -443,7 +443,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -454,13 +454,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4B2838-9464-41CC-A2CE-E0751A919703}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
